--- a/coxaxle/src/test/resources/datasheets/AT_02_Signup.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_02_Signup.xlsx
@@ -436,7 +436,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/coxaxle/src/test/resources/datasheets/AT_02_Signup.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_02_Signup.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="2520" windowWidth="13995" windowHeight="6345"/>
   </bookViews>
   <sheets>
-    <sheet name="sample" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -38,28 +38,40 @@
     <t>Confirmpassword</t>
   </si>
   <si>
-    <t>Test@123</t>
-  </si>
-  <si>
     <t>Please Check your email to activate</t>
   </si>
   <si>
     <t>AlertMsg</t>
   </si>
   <si>
-    <t>Thejaswi</t>
-  </si>
-  <si>
-    <t>50213</t>
-  </si>
-  <si>
-    <t>thejaswi.y@gmail.com</t>
-  </si>
-  <si>
-    <t>(276) 343-7899</t>
-  </si>
-  <si>
-    <t>Test23</t>
+    <t>InTime</t>
+  </si>
+  <si>
+    <t>OutTime</t>
+  </si>
+  <si>
+    <t>8AM</t>
+  </si>
+  <si>
+    <t>10PM</t>
+  </si>
+  <si>
+    <t>Sabitha</t>
+  </si>
+  <si>
+    <t>sabitha.adama@vensaiinc.com</t>
+  </si>
+  <si>
+    <t>Qa@123</t>
+  </si>
+  <si>
+    <t>(276) 343-7669</t>
+  </si>
+  <si>
+    <t>Test111</t>
+  </si>
+  <si>
+    <t>52223</t>
   </si>
 </sst>
 </file>
@@ -433,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -447,7 +459,7 @@
     <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,40 +482,52 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/coxaxle/src/test/resources/datasheets/AT_02_Signup.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_02_Signup.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -56,12 +56,6 @@
     <t>10PM</t>
   </si>
   <si>
-    <t>Sabitha</t>
-  </si>
-  <si>
-    <t>sabitha.adama@vensaiinc.com</t>
-  </si>
-  <si>
     <t>Qa@123</t>
   </si>
   <si>
@@ -72,6 +66,12 @@
   </si>
   <si>
     <t>52223</t>
+  </si>
+  <si>
+    <t>thejaswi.y@vensaiinc.com</t>
+  </si>
+  <si>
+    <t>Thejaswi</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -493,25 +493,25 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -525,12 +525,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/coxaxle/src/test/resources/datasheets/AT_02_Signup.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_02_Signup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -68,10 +68,22 @@
     <t>52223</t>
   </si>
   <si>
-    <t>thejaswi.y@vensaiinc.com</t>
-  </si>
-  <si>
-    <t>Thejaswi</t>
+    <t>Sabitha</t>
+  </si>
+  <si>
+    <t>sabitha.adama92@gmail.com</t>
+  </si>
+  <si>
+    <t>ImagePath</t>
+  </si>
+  <si>
+    <t>C:/Users/Public/Pictures/Sample Pictures/photo.jpg</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
   </si>
 </sst>
 </file>
@@ -445,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -457,9 +469,10 @@
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,13 +503,19 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -521,15 +540,22 @@
       </c>
       <c r="J2" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/coxaxle/src/test/resources/datasheets/AT_02_Signup.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_02_Signup.xlsx
@@ -71,9 +71,6 @@
     <t>Sabitha</t>
   </si>
   <si>
-    <t>sabitha.adama92@gmail.com</t>
-  </si>
-  <si>
     <t>ImagePath</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>sabitha.adama@vensaiinc.com</t>
   </si>
 </sst>
 </file>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -504,10 +504,10 @@
         <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -515,7 +515,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -542,10 +542,10 @@
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/coxaxle/src/test/resources/datasheets/AT_02_Signup.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_02_Signup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -59,31 +59,40 @@
     <t>Qa@123</t>
   </si>
   <si>
-    <t>(276) 343-7669</t>
-  </si>
-  <si>
-    <t>Test111</t>
-  </si>
-  <si>
-    <t>52223</t>
-  </si>
-  <si>
     <t>Sabitha</t>
   </si>
   <si>
+    <t>ImagePath</t>
+  </si>
+  <si>
+    <t>C:/Users/Public/Pictures/Sample Pictures/photo.jpg</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>https://www.google.com/</t>
+  </si>
+  <si>
     <t>sabitha.adama92@gmail.com</t>
   </si>
   <si>
-    <t>ImagePath</t>
-  </si>
-  <si>
-    <t>C:/Users/Public/Pictures/Sample Pictures/photo.jpg</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Hyderabad</t>
+    <t>(276) 343-6769</t>
+  </si>
+  <si>
+    <t>Test101</t>
+  </si>
+  <si>
+    <t>52922</t>
   </si>
 </sst>
 </file>
@@ -457,22 +466,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,79 +493,92 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
     <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/coxaxle/src/test/resources/datasheets/AT_02_Signup.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_02_Signup.xlsx
@@ -65,9 +65,6 @@
     <t>ImagePath</t>
   </si>
   <si>
-    <t>C:/Users/Public/Pictures/Sample Pictures/photo.jpg</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>52922</t>
+  </si>
+  <si>
+    <t>C:/Users/Public/Pictures/Sample Pictures/photo.png</t>
   </si>
 </sst>
 </file>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -493,10 +493,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -523,7 +523,7 @@
         <v>15</v>
       </c>
       <c r="N1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -531,19 +531,19 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
@@ -552,7 +552,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -564,10 +564,10 @@
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
